--- a/Specs/Position_Surname.xlsx
+++ b/Specs/Position_Surname.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20352"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Werk\220\2022\Project\Marking\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Software\XAMPP\installation\htdocs\IMY220\project\Specs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3625CCAD-B37E-45A7-AEF9-1A67C3E94989}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5103A177-2679-4AC5-A69B-D023430FD52C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BC8E386B-9B68-4E1C-A935-933319C6EB34}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BC8E386B-9B68-4E1C-A935-933319C6EB34}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="161">
   <si>
     <t>Yes/No</t>
   </si>
@@ -556,12 +567,18 @@
   <si>
     <t>Position_Surname:</t>
   </si>
+  <si>
+    <t>✔</t>
+  </si>
+  <si>
+    <t>❌</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1160,17 +1177,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{956CF17A-F085-48B4-B2E7-798B312D3D72}">
   <dimension ref="A1:G195"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="94" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="94" zoomScaleNormal="94" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="80.6640625" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" customWidth="1"/>
+    <col min="1" max="1" width="80.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>158</v>
       </c>
@@ -1178,786 +1195,794 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5" s="4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2">
       <c r="A6" s="4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2">
       <c r="A7" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2">
       <c r="A8" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" ht="15.75" thickBot="1">
       <c r="A10" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" ht="15.75" thickBot="1">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" ht="15.75" thickBot="1">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" ht="15.75" thickBot="1">
       <c r="A14" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" ht="15.75" thickBot="1">
       <c r="A15" t="s">
         <v>108</v>
       </c>
       <c r="B15" s="1"/>
     </row>
-    <row r="17" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" ht="15.75" thickBot="1">
       <c r="A17" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" ht="15.75" thickBot="1">
       <c r="A18" t="s">
         <v>109</v>
       </c>
       <c r="B18" s="1"/>
     </row>
-    <row r="19" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" ht="15.75" thickBot="1">
       <c r="A19" t="s">
         <v>8</v>
       </c>
       <c r="B19" s="1"/>
     </row>
-    <row r="20" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" ht="15.75" thickBot="1">
       <c r="A20" t="s">
         <v>9</v>
       </c>
       <c r="B20" s="1"/>
     </row>
-    <row r="21" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" ht="15.75" thickBot="1">
       <c r="A21" t="s">
         <v>10</v>
       </c>
       <c r="B21" s="1"/>
     </row>
-    <row r="22" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" ht="15.75" thickBot="1">
       <c r="A22" t="s">
         <v>11</v>
       </c>
       <c r="B22" s="1"/>
     </row>
-    <row r="23" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" ht="15.75" thickBot="1">
       <c r="A23" t="s">
         <v>12</v>
       </c>
       <c r="B23" s="1"/>
     </row>
-    <row r="25" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" ht="15.75" thickBot="1">
       <c r="A25" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" ht="15.75" thickBot="1">
       <c r="A26" t="s">
         <v>14</v>
       </c>
       <c r="B26" s="1"/>
     </row>
-    <row r="27" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" ht="15.75" thickBot="1">
       <c r="A27" t="s">
         <v>15</v>
       </c>
       <c r="B27" s="1"/>
     </row>
-    <row r="28" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" ht="15.75" thickBot="1">
       <c r="A28" t="s">
         <v>16</v>
       </c>
       <c r="B28" s="1"/>
     </row>
-    <row r="29" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" ht="15.75" thickBot="1">
       <c r="A29" t="s">
         <v>17</v>
       </c>
       <c r="B29" s="1"/>
     </row>
-    <row r="30" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" ht="15.75" thickBot="1">
       <c r="A30" t="s">
         <v>18</v>
       </c>
       <c r="B30" s="1"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2">
       <c r="A32" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>110</v>
       </c>
       <c r="B33" s="5"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>111</v>
       </c>
       <c r="B34" s="5"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3">
       <c r="A35" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B35" s="5"/>
     </row>
-    <row r="36" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" ht="15.75" thickBot="1">
       <c r="A36" s="3"/>
       <c r="B36" s="6"/>
     </row>
-    <row r="37" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" ht="15.75" thickBot="1">
       <c r="A37" s="1" t="str">
         <f>A1</f>
         <v>Position_Surname:</v>
       </c>
       <c r="B37" s="6"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3">
       <c r="A38" s="7" t="s">
         <v>112</v>
       </c>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
     </row>
-    <row r="40" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" ht="15.75" thickBot="1">
       <c r="A40" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" ht="15.75" thickBot="1">
       <c r="A41" t="s">
         <v>22</v>
       </c>
-      <c r="B41" s="1"/>
+      <c r="B41" s="1" t="s">
+        <v>160</v>
+      </c>
       <c r="C41" s="8"/>
     </row>
-    <row r="42" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" ht="15.75" thickBot="1">
       <c r="A42" t="s">
         <v>23</v>
       </c>
-      <c r="B42" s="1"/>
+      <c r="B42" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="C42" s="8"/>
     </row>
-    <row r="43" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" ht="15.75" thickBot="1">
       <c r="A43" t="s">
         <v>24</v>
       </c>
-      <c r="B43" s="1"/>
+      <c r="B43" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="C43" s="8"/>
     </row>
-    <row r="45" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" ht="15.75" thickBot="1">
       <c r="A45" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" ht="15.75" thickBot="1">
       <c r="A46" t="s">
         <v>26</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="8"/>
     </row>
-    <row r="47" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" ht="15.75" thickBot="1">
       <c r="A47" t="s">
         <v>27</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="8"/>
     </row>
-    <row r="48" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" ht="15.75" thickBot="1">
       <c r="A48" t="s">
         <v>28</v>
       </c>
-      <c r="B48" s="1"/>
+      <c r="B48" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="C48" s="8"/>
     </row>
-    <row r="49" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" ht="15.75" thickBot="1">
       <c r="A49" t="s">
         <v>113</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="8"/>
     </row>
-    <row r="50" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" ht="15.75" thickBot="1">
       <c r="A50" t="s">
         <v>115</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="8"/>
     </row>
-    <row r="51" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" ht="15.75" thickBot="1">
       <c r="A51" t="s">
         <v>29</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="8"/>
     </row>
-    <row r="52" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" ht="15.75" thickBot="1">
       <c r="A52" t="s">
         <v>30</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="8"/>
     </row>
-    <row r="53" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" ht="15.75" thickBot="1">
       <c r="A53" t="s">
         <v>114</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="8"/>
     </row>
-    <row r="54" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" ht="15.75" thickBot="1">
       <c r="A54" t="s">
         <v>157</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="8"/>
     </row>
-    <row r="55" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" ht="15.75" thickBot="1">
       <c r="A55" t="s">
         <v>105</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="8"/>
     </row>
-    <row r="56" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" ht="15.75" thickBot="1">
       <c r="A56" t="s">
         <v>95</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="8"/>
     </row>
-    <row r="57" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" ht="15.75" thickBot="1">
       <c r="A57" s="9" t="s">
         <v>31</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="8"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3">
       <c r="A59" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" ht="15.75" thickBot="1">
       <c r="A60" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" ht="15.75" thickBot="1">
       <c r="A61" t="s">
         <v>96</v>
       </c>
       <c r="B61" s="1"/>
     </row>
-    <row r="62" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" ht="15.75" thickBot="1">
       <c r="A62" t="s">
         <v>116</v>
       </c>
       <c r="B62" s="1"/>
     </row>
-    <row r="63" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" ht="15.75" thickBot="1">
       <c r="A63" t="s">
         <v>34</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="8"/>
     </row>
-    <row r="64" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" ht="15.75" thickBot="1">
       <c r="A64" t="s">
         <v>35</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="8"/>
     </row>
-    <row r="65" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" ht="15.75" thickBot="1">
       <c r="A65" t="s">
         <v>36</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="8"/>
     </row>
-    <row r="66" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" ht="15.75" thickBot="1">
       <c r="A66" t="s">
         <v>37</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="8"/>
     </row>
-    <row r="67" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" ht="15.75" thickBot="1">
       <c r="A67" t="s">
         <v>38</v>
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="8"/>
     </row>
-    <row r="69" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" ht="15.75" thickBot="1">
       <c r="A69" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3" ht="15.75" thickBot="1">
       <c r="A70" t="s">
         <v>40</v>
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="8"/>
     </row>
-    <row r="71" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3" ht="15.75" thickBot="1">
       <c r="A71" t="s">
         <v>41</v>
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="8"/>
     </row>
-    <row r="72" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" ht="15.75" thickBot="1">
       <c r="A72" t="s">
         <v>42</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="8"/>
     </row>
-    <row r="73" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3" ht="15.75" thickBot="1">
       <c r="A73" s="9" t="s">
         <v>117</v>
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="8"/>
     </row>
-    <row r="74" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3" ht="15.75" thickBot="1">
       <c r="A74" s="9" t="s">
         <v>118</v>
       </c>
       <c r="B74" s="1"/>
       <c r="C74" s="8"/>
     </row>
-    <row r="76" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3" ht="15.75" thickBot="1">
       <c r="A76" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3" ht="15.75" thickBot="1">
       <c r="A77" t="s">
         <v>44</v>
       </c>
       <c r="B77" s="1"/>
       <c r="C77" s="8"/>
     </row>
-    <row r="78" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3" ht="15.75" thickBot="1">
       <c r="A78" t="s">
         <v>45</v>
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="8"/>
     </row>
-    <row r="79" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3" ht="15.75" thickBot="1">
       <c r="A79" t="s">
         <v>46</v>
       </c>
       <c r="B79" s="1"/>
       <c r="C79" s="8"/>
     </row>
-    <row r="80" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:3" ht="15.75" thickBot="1">
       <c r="A80" t="s">
         <v>47</v>
       </c>
       <c r="B80" s="1"/>
       <c r="C80" s="8"/>
     </row>
-    <row r="81" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:3" ht="15.75" thickBot="1">
       <c r="A81" t="s">
         <v>119</v>
       </c>
       <c r="B81" s="1"/>
       <c r="C81" s="8"/>
     </row>
-    <row r="83" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:3" ht="15.75" thickBot="1">
       <c r="A83" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:3" ht="15.75" thickBot="1">
       <c r="A84" t="s">
         <v>153</v>
       </c>
       <c r="B84" s="1"/>
       <c r="C84" s="8"/>
     </row>
-    <row r="85" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:3" ht="15.75" thickBot="1">
       <c r="A85" t="s">
         <v>49</v>
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="8"/>
     </row>
-    <row r="86" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:3" ht="15.75" thickBot="1">
       <c r="A86" t="s">
         <v>97</v>
       </c>
       <c r="B86" s="1"/>
       <c r="C86" s="8"/>
     </row>
-    <row r="87" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:3" ht="15.75" thickBot="1">
       <c r="A87" t="s">
         <v>98</v>
       </c>
       <c r="B87" s="1"/>
       <c r="C87" s="8"/>
     </row>
-    <row r="88" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:3" ht="15.75" thickBot="1">
       <c r="A88" t="s">
         <v>106</v>
       </c>
       <c r="B88" s="1"/>
       <c r="C88" s="8"/>
     </row>
-    <row r="89" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:3" ht="15.75" thickBot="1">
       <c r="A89" s="9" t="s">
         <v>50</v>
       </c>
       <c r="B89" s="1"/>
       <c r="C89" s="8"/>
     </row>
-    <row r="90" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:3" ht="15.75" thickBot="1">
       <c r="A90" s="9" t="s">
         <v>51</v>
       </c>
       <c r="B90" s="1"/>
       <c r="C90" s="8"/>
     </row>
-    <row r="91" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:3" ht="15.75" thickBot="1">
       <c r="A91" s="9" t="s">
         <v>154</v>
       </c>
       <c r="B91" s="1"/>
       <c r="C91" s="8"/>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3">
       <c r="A92" s="24" t="str">
         <f>A1</f>
         <v>Position_Surname:</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:3" ht="15.75" thickBot="1">
       <c r="A93" s="3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:3" ht="15.75" thickBot="1">
       <c r="A94" t="s">
         <v>121</v>
       </c>
       <c r="B94" s="1"/>
       <c r="C94" s="8"/>
     </row>
-    <row r="95" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:3" ht="15.75" thickBot="1">
       <c r="A95" t="s">
         <v>122</v>
       </c>
       <c r="B95" s="1"/>
       <c r="C95" s="8"/>
     </row>
-    <row r="96" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:3" ht="15.75" thickBot="1">
       <c r="A96" t="s">
         <v>123</v>
       </c>
       <c r="B96" s="1"/>
       <c r="C96" s="8"/>
     </row>
-    <row r="97" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:3" ht="15.75" thickBot="1">
       <c r="A97" t="s">
         <v>124</v>
       </c>
       <c r="B97" s="1"/>
       <c r="C97" s="8"/>
     </row>
-    <row r="98" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:3" ht="15.75" thickBot="1">
       <c r="A98" t="s">
         <v>125</v>
       </c>
       <c r="B98" s="1"/>
       <c r="C98" s="8"/>
     </row>
-    <row r="99" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:3" ht="15.75" thickBot="1">
       <c r="A99" s="9" t="s">
         <v>99</v>
       </c>
       <c r="B99" s="1"/>
       <c r="C99" s="8"/>
     </row>
-    <row r="100" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:3" ht="15.75" thickBot="1">
       <c r="A100" s="9" t="s">
         <v>126</v>
       </c>
       <c r="B100" s="1"/>
       <c r="C100" s="8"/>
     </row>
-    <row r="101" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:3" ht="15.75" thickBot="1">
       <c r="A101" s="9" t="s">
         <v>127</v>
       </c>
       <c r="B101" s="1"/>
       <c r="C101" s="8"/>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3">
       <c r="B102" s="11"/>
       <c r="C102" s="6"/>
     </row>
-    <row r="103" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:3" ht="15.75" thickBot="1">
       <c r="A103" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:3" ht="15.75" thickBot="1">
       <c r="A104" t="s">
         <v>128</v>
       </c>
       <c r="B104" s="1"/>
       <c r="C104" s="8"/>
     </row>
-    <row r="105" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:3" ht="15.75" thickBot="1">
       <c r="A105" t="s">
         <v>131</v>
       </c>
       <c r="B105" s="1"/>
       <c r="C105" s="8"/>
     </row>
-    <row r="106" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:3" ht="15.75" thickBot="1">
       <c r="A106" t="s">
         <v>129</v>
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="8"/>
     </row>
-    <row r="107" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:3" ht="15.75" thickBot="1">
       <c r="A107" t="s">
         <v>136</v>
       </c>
       <c r="B107" s="1"/>
       <c r="C107" s="8"/>
     </row>
-    <row r="108" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:3" ht="15.75" thickBot="1">
       <c r="A108" t="s">
         <v>132</v>
       </c>
       <c r="B108" s="1"/>
       <c r="C108" s="8"/>
     </row>
-    <row r="109" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:3" ht="15.75" thickBot="1">
       <c r="A109" t="s">
         <v>133</v>
       </c>
       <c r="B109" s="1"/>
       <c r="C109" s="8"/>
     </row>
-    <row r="110" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:3" ht="15.75" thickBot="1">
       <c r="A110" t="s">
         <v>134</v>
       </c>
       <c r="B110" s="1"/>
       <c r="C110" s="8"/>
     </row>
-    <row r="111" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:3" ht="15.75" thickBot="1">
       <c r="A111" t="s">
         <v>135</v>
       </c>
       <c r="B111" s="1"/>
       <c r="C111" s="8"/>
     </row>
-    <row r="112" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:3" ht="15.75" thickBot="1">
       <c r="A112" s="9" t="s">
         <v>137</v>
       </c>
       <c r="B112" s="1"/>
       <c r="C112" s="8"/>
     </row>
-    <row r="113" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:3" ht="15.75" thickBot="1">
       <c r="A113" s="9" t="s">
         <v>138</v>
       </c>
       <c r="B113" s="1"/>
       <c r="C113" s="8"/>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3">
       <c r="B114" s="6"/>
       <c r="C114" s="6"/>
     </row>
-    <row r="115" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:3" ht="15.75" thickBot="1">
       <c r="A115" s="10" t="s">
         <v>139</v>
       </c>
       <c r="B115" s="11"/>
       <c r="C115" s="6"/>
     </row>
-    <row r="116" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:3" ht="15.75" thickBot="1">
       <c r="A116" s="12" t="s">
         <v>140</v>
       </c>
       <c r="B116" s="1"/>
       <c r="C116" s="21"/>
     </row>
-    <row r="117" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:3" ht="15.75" thickBot="1">
       <c r="A117" s="12" t="s">
         <v>141</v>
       </c>
       <c r="B117" s="1"/>
       <c r="C117" s="8"/>
     </row>
-    <row r="118" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:3" ht="15.75" thickBot="1">
       <c r="A118" s="12" t="s">
         <v>142</v>
       </c>
       <c r="B118" s="1"/>
       <c r="C118" s="8"/>
     </row>
-    <row r="119" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:3" ht="15.75" thickBot="1">
       <c r="A119" s="9" t="s">
         <v>143</v>
       </c>
       <c r="B119" s="1"/>
       <c r="C119" s="8"/>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3">
       <c r="A120" s="12"/>
       <c r="B120" s="11"/>
       <c r="C120" s="15"/>
     </row>
-    <row r="121" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:3" ht="15.75" thickBot="1">
       <c r="A121" s="3" t="s">
         <v>145</v>
       </c>
       <c r="B121" s="6"/>
       <c r="C121" s="6"/>
     </row>
-    <row r="122" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:3" ht="15.75" thickBot="1">
       <c r="A122" t="s">
         <v>146</v>
       </c>
       <c r="B122" s="1"/>
       <c r="C122" s="21"/>
     </row>
-    <row r="123" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:3" ht="15.75" thickBot="1">
       <c r="A123" t="s">
         <v>144</v>
       </c>
       <c r="B123" s="1"/>
       <c r="C123" s="22"/>
     </row>
-    <row r="124" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:3" ht="15.75" thickBot="1">
       <c r="A124" t="s">
         <v>147</v>
       </c>
       <c r="B124" s="1"/>
       <c r="C124" s="21"/>
     </row>
-    <row r="125" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:3" ht="15.75" thickBot="1">
       <c r="A125" s="9" t="s">
         <v>148</v>
       </c>
       <c r="B125" s="1"/>
       <c r="C125" s="21"/>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3">
       <c r="A126" s="9"/>
       <c r="B126" s="11"/>
       <c r="C126" s="6"/>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3">
       <c r="A127" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B127" s="6"/>
       <c r="C127" s="6"/>
     </row>
-    <row r="128" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:3" ht="15.75" thickBot="1">
       <c r="A128" t="s">
         <v>53</v>
       </c>
       <c r="B128" s="11"/>
       <c r="C128" s="6"/>
     </row>
-    <row r="129" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:7" ht="15.75" thickBot="1">
       <c r="A129" t="s">
         <v>54</v>
       </c>
       <c r="B129" s="1"/>
       <c r="C129" s="8"/>
     </row>
-    <row r="130" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:7" ht="15.75" thickBot="1">
       <c r="A130" t="s">
         <v>55</v>
       </c>
       <c r="B130" s="1"/>
       <c r="C130" s="8"/>
     </row>
-    <row r="131" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:7" ht="15.75" thickBot="1">
       <c r="A131" t="s">
         <v>149</v>
       </c>
       <c r="B131" s="1"/>
       <c r="C131" s="8"/>
     </row>
-    <row r="132" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:7" ht="15.75" thickBot="1">
       <c r="A132" t="s">
         <v>150</v>
       </c>
       <c r="B132" s="1"/>
       <c r="C132" s="8"/>
     </row>
-    <row r="133" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:7" ht="15.75" thickBot="1">
       <c r="A133" t="s">
         <v>56</v>
       </c>
       <c r="B133" s="1"/>
       <c r="C133" s="8"/>
     </row>
-    <row r="134" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:7" ht="15.75" thickBot="1">
       <c r="A134" t="s">
         <v>57</v>
       </c>
       <c r="B134" s="1"/>
       <c r="C134" s="21"/>
     </row>
-    <row r="135" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:7" ht="15.75" thickBot="1">
       <c r="A135" t="s">
         <v>151</v>
       </c>
       <c r="B135" s="1"/>
       <c r="C135" s="23"/>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7">
       <c r="B136" s="11"/>
       <c r="C136" s="6"/>
       <c r="D136" s="6"/>
@@ -1965,7 +1990,7 @@
       <c r="F136" s="6"/>
       <c r="G136" s="6"/>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7">
       <c r="A137" s="9" t="s">
         <v>63</v>
       </c>
@@ -1976,7 +2001,7 @@
       <c r="F137" s="6"/>
       <c r="G137" s="6"/>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7">
       <c r="A138" s="3" t="s">
         <v>93</v>
       </c>
@@ -1987,7 +2012,7 @@
       <c r="F138" s="6"/>
       <c r="G138" s="6"/>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7">
       <c r="A139" s="13"/>
       <c r="B139" s="15"/>
       <c r="C139" s="6"/>
@@ -1996,7 +2021,7 @@
       <c r="F139" s="6"/>
       <c r="G139" s="6"/>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7">
       <c r="A140" s="16"/>
       <c r="B140" s="17"/>
       <c r="C140" s="6"/>
@@ -2005,7 +2030,7 @@
       <c r="F140" s="6"/>
       <c r="G140" s="6"/>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7">
       <c r="A141" s="16"/>
       <c r="B141" s="17"/>
       <c r="C141" s="6"/>
@@ -2014,7 +2039,7 @@
       <c r="F141" s="6"/>
       <c r="G141" s="6"/>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7">
       <c r="A142" s="18"/>
       <c r="B142" s="20"/>
       <c r="C142" s="6"/>
@@ -2023,7 +2048,7 @@
       <c r="F142" s="6"/>
       <c r="G142" s="6"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7">
       <c r="A143" s="25" t="str">
         <f>A1</f>
         <v>Position_Surname:</v>
@@ -2035,336 +2060,340 @@
       <c r="F143" s="6"/>
       <c r="G143" s="6"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7">
       <c r="A144" t="s">
         <v>152</v>
       </c>
       <c r="B144" s="6"/>
       <c r="C144" s="5"/>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3">
       <c r="B145" s="6"/>
       <c r="C145" s="6"/>
     </row>
-    <row r="146" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:3" ht="15.75" thickBot="1">
       <c r="A146" s="3" t="s">
         <v>58</v>
       </c>
       <c r="B146" s="6"/>
       <c r="C146" s="6"/>
     </row>
-    <row r="147" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:3" ht="15.75" thickBot="1">
       <c r="A147" t="s">
         <v>59</v>
       </c>
       <c r="B147" s="1"/>
       <c r="C147" s="8"/>
     </row>
-    <row r="148" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:3" ht="15.75" thickBot="1">
       <c r="A148" t="s">
         <v>60</v>
       </c>
       <c r="B148" s="1"/>
       <c r="C148" s="8"/>
     </row>
-    <row r="149" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:3" ht="15.75" thickBot="1">
       <c r="A149" t="s">
         <v>61</v>
       </c>
       <c r="B149" s="1"/>
       <c r="C149" s="5"/>
     </row>
-    <row r="150" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:3" ht="15.75" thickBot="1">
       <c r="A150" t="s">
         <v>62</v>
       </c>
       <c r="B150" s="1"/>
       <c r="C150" s="5"/>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3">
       <c r="A151" s="9" t="s">
         <v>63</v>
       </c>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3">
       <c r="B152" s="6"/>
       <c r="C152" s="6"/>
     </row>
-    <row r="153" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:3" ht="15.75" thickBot="1">
       <c r="A153" s="3" t="s">
         <v>64</v>
       </c>
       <c r="B153" s="6"/>
       <c r="C153" s="6"/>
     </row>
-    <row r="154" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:3" ht="15.75" thickBot="1">
       <c r="A154" t="s">
         <v>65</v>
       </c>
       <c r="B154" s="1"/>
       <c r="C154" s="8"/>
     </row>
-    <row r="155" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:3" ht="15.75" thickBot="1">
       <c r="A155" t="s">
         <v>66</v>
       </c>
       <c r="B155" s="1"/>
       <c r="C155" s="8"/>
     </row>
-    <row r="156" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:3" ht="15.75" thickBot="1">
       <c r="A156" t="s">
         <v>67</v>
       </c>
       <c r="B156" s="1"/>
       <c r="C156" s="8"/>
     </row>
-    <row r="157" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:3" ht="15.75" thickBot="1">
       <c r="A157" t="s">
         <v>68</v>
       </c>
       <c r="B157" s="1"/>
       <c r="C157" s="8"/>
     </row>
-    <row r="158" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:3" ht="15.75" thickBot="1">
       <c r="A158" t="s">
         <v>69</v>
       </c>
-      <c r="B158" s="1"/>
+      <c r="B158" s="1" t="s">
+        <v>160</v>
+      </c>
       <c r="C158" s="8"/>
     </row>
-    <row r="159" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:3" ht="15.75" thickBot="1">
       <c r="A159" t="s">
         <v>70</v>
       </c>
       <c r="B159" s="1"/>
       <c r="C159" s="8"/>
     </row>
-    <row r="160" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:3" ht="15.75" thickBot="1">
       <c r="A160" t="s">
         <v>71</v>
       </c>
       <c r="B160" s="1"/>
       <c r="C160" s="8"/>
     </row>
-    <row r="161" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:3" ht="15.75" thickBot="1">
       <c r="A161" t="s">
         <v>155</v>
       </c>
-      <c r="B161" s="1"/>
+      <c r="B161" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="C161" s="8"/>
     </row>
-    <row r="162" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:3" ht="15.75" thickBot="1">
       <c r="A162" t="s">
         <v>72</v>
       </c>
       <c r="B162" s="1"/>
       <c r="C162" s="8"/>
     </row>
-    <row r="163" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:3" ht="15.75" thickBot="1">
       <c r="A163" t="s">
         <v>73</v>
       </c>
       <c r="B163" s="1"/>
       <c r="C163" s="8"/>
     </row>
-    <row r="164" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:3" ht="15.75" thickBot="1">
       <c r="A164" t="s">
         <v>74</v>
       </c>
       <c r="B164" s="1"/>
       <c r="C164" s="8"/>
     </row>
-    <row r="165" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:3" ht="15.75" thickBot="1">
       <c r="A165" t="s">
         <v>75</v>
       </c>
       <c r="B165" s="1"/>
       <c r="C165" s="8"/>
     </row>
-    <row r="166" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:3" ht="15.75" thickBot="1">
       <c r="A166" t="s">
         <v>76</v>
       </c>
       <c r="B166" s="1"/>
       <c r="C166" s="8"/>
     </row>
-    <row r="167" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:3" ht="15.75" thickBot="1">
       <c r="A167" t="s">
         <v>156</v>
       </c>
       <c r="B167" s="1"/>
       <c r="C167" s="8"/>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3">
       <c r="B168" s="6"/>
       <c r="C168" s="6"/>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3">
       <c r="A169" s="3" t="s">
         <v>77</v>
       </c>
       <c r="B169" s="6"/>
       <c r="C169" s="6"/>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3">
       <c r="A170" t="s">
         <v>78</v>
       </c>
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3">
       <c r="B171" s="6"/>
       <c r="C171" s="6"/>
     </row>
-    <row r="172" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:3" ht="15.75" thickBot="1">
       <c r="A172" s="3" t="s">
         <v>79</v>
       </c>
       <c r="B172" s="6"/>
       <c r="C172" s="6"/>
     </row>
-    <row r="173" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:3" ht="15.75" thickBot="1">
       <c r="A173" t="s">
         <v>80</v>
       </c>
       <c r="B173" s="1"/>
       <c r="C173" s="22"/>
     </row>
-    <row r="174" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:3" ht="15.75" thickBot="1">
       <c r="A174" t="s">
         <v>81</v>
       </c>
       <c r="B174" s="1"/>
       <c r="C174" s="8"/>
     </row>
-    <row r="175" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:3" ht="15.75" thickBot="1">
       <c r="A175" t="s">
         <v>82</v>
       </c>
       <c r="B175" s="1"/>
     </row>
-    <row r="176" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:3" ht="15.75" thickBot="1">
       <c r="A176" t="s">
         <v>83</v>
       </c>
       <c r="B176" s="1"/>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3">
       <c r="B177" s="6"/>
       <c r="C177" s="6"/>
     </row>
-    <row r="178" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:3" ht="15.75" thickBot="1">
       <c r="A178" s="3" t="s">
         <v>84</v>
       </c>
       <c r="B178" s="6"/>
       <c r="C178" s="6"/>
     </row>
-    <row r="179" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:3" ht="15.75" thickBot="1">
       <c r="A179" t="s">
         <v>85</v>
       </c>
       <c r="B179" s="1"/>
       <c r="C179" s="8"/>
     </row>
-    <row r="180" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:3" ht="15.75" thickBot="1">
       <c r="A180" t="s">
         <v>86</v>
       </c>
       <c r="B180" s="1"/>
       <c r="C180" s="8"/>
     </row>
-    <row r="181" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:3" ht="15.75" thickBot="1">
       <c r="A181" t="s">
         <v>87</v>
       </c>
       <c r="B181" s="1"/>
       <c r="C181" s="8"/>
     </row>
-    <row r="182" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:3" ht="15.75" thickBot="1">
       <c r="A182" t="s">
         <v>88</v>
       </c>
       <c r="B182" s="1"/>
       <c r="C182" s="8"/>
     </row>
-    <row r="183" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:3" ht="15.75" thickBot="1">
       <c r="A183" t="s">
         <v>102</v>
       </c>
       <c r="B183" s="1"/>
       <c r="C183" s="8"/>
     </row>
-    <row r="184" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:3" ht="15.75" thickBot="1">
       <c r="A184" t="s">
         <v>100</v>
       </c>
       <c r="B184" s="1"/>
       <c r="C184" s="8"/>
     </row>
-    <row r="185" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:3" ht="15.75" thickBot="1">
       <c r="A185" t="s">
         <v>89</v>
       </c>
       <c r="B185" s="1"/>
       <c r="C185" s="8"/>
     </row>
-    <row r="186" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:3" ht="15.75" thickBot="1">
       <c r="A186" t="s">
         <v>90</v>
       </c>
       <c r="B186" s="1"/>
       <c r="C186" s="8"/>
     </row>
-    <row r="187" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:3" ht="15.75" thickBot="1">
       <c r="A187" t="s">
         <v>91</v>
       </c>
       <c r="B187" s="1"/>
       <c r="C187" s="8"/>
     </row>
-    <row r="188" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:3" ht="15.75" thickBot="1">
       <c r="A188" t="s">
         <v>92</v>
       </c>
       <c r="B188" s="1"/>
       <c r="C188" s="8"/>
     </row>
-    <row r="189" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:3" ht="15.75" thickBot="1">
       <c r="A189" t="s">
         <v>101</v>
       </c>
       <c r="B189" s="1"/>
       <c r="C189" s="8"/>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:3">
       <c r="C190" s="15"/>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:3">
       <c r="A191" s="3" t="s">
         <v>93</v>
       </c>
       <c r="C191" s="6"/>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:3">
       <c r="A192" s="13"/>
       <c r="B192" s="14"/>
       <c r="C192" s="15"/>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:3">
       <c r="A193" s="16"/>
       <c r="B193" s="6"/>
       <c r="C193" s="17"/>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:3">
       <c r="A194" s="16"/>
       <c r="B194" s="6"/>
       <c r="C194" s="17"/>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:3">
       <c r="A195" s="18"/>
       <c r="B195" s="19"/>
       <c r="C195" s="20"/>
